--- a/example_documents/spatial_transcriptomics_fish_example_mixs_v0.1.xlsx
+++ b/example_documents/spatial_transcriptomics_fish_example_mixs_v0.1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/providen/Documents/EI/Projects/SingleCellSchemas/example_documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26048950-04FF-474E-A237-7DFF96B556F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="32380" yWindow="-1600" windowWidth="30240" windowHeight="17960" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -15,12 +21,12 @@
     <sheet name="imaging_protocol" sheetId="6" r:id="rId6"/>
     <sheet name="file" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="267">
   <si>
     <t>key</t>
   </si>
@@ -43,10 +49,10 @@
     <t>version_mixs_stx_fish</t>
   </si>
   <si>
-    <t>Spatial Transcriptomics Fluorescence In Situ Hybridisation [Minimum Information about any (x) Sequence (MIxS)]</t>
-  </si>
-  <si>
-    <t>Spatial transcriptomics using Fluorescence In Situ Hybridisation (FISH), providing insights into gene expression within tissues, following the Minimum Information about any (x) Sequence (MIxS) standard for contextual data about sequencing and sampling.</t>
+    <t>Spatial Transcriptomics Fluorescence In Situ Hybridisation (ST-FISH) [Minimum Information about any (x) Sequence (MIxS)]</t>
+  </si>
+  <si>
+    <t>Spatial transcriptomics using Fluorescence In Situ Hybridisation (FISH), Minimum Information about any (x) Sequence (MIxS) standard for contextual data about sequencing and sampling.</t>
   </si>
   <si>
     <t>mixs</t>
@@ -64,9 +70,6 @@
     <t>project_name</t>
   </si>
   <si>
-    <t>workflow</t>
-  </si>
-  <si>
     <t>workflow (optional)</t>
   </si>
   <si>
@@ -115,27 +118,15 @@
     <t>Spatial Transcriptomics</t>
   </si>
   <si>
-    <t>orcid_id</t>
-  </si>
-  <si>
     <t>givenName</t>
   </si>
   <si>
     <t>familyName</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>affiliation</t>
   </si>
   <si>
-    <t>funder</t>
-  </si>
-  <si>
-    <t>funding</t>
-  </si>
-  <si>
     <t>orcid_id (optional)</t>
   </si>
   <si>
@@ -193,36 +184,6 @@
     <t>sample_id</t>
   </si>
   <si>
-    <t>specific_host</t>
-  </si>
-  <si>
-    <t>organism</t>
-  </si>
-  <si>
-    <t>microb_start_taxID</t>
-  </si>
-  <si>
-    <t>tissue</t>
-  </si>
-  <si>
-    <t>env_broad_scale</t>
-  </si>
-  <si>
-    <t>env_local_scale</t>
-  </si>
-  <si>
-    <t>env_medium</t>
-  </si>
-  <si>
-    <t>cultivar</t>
-  </si>
-  <si>
-    <t>materialSourceID</t>
-  </si>
-  <si>
-    <t>geo_loc_name</t>
-  </si>
-  <si>
     <t>specific_host (optional)</t>
   </si>
   <si>
@@ -274,7 +235,7 @@
     <t>An identifier of the strain of the organism, if applicable.</t>
   </si>
   <si>
-    <t>e.g. CCAP1119/17</t>
+    <t>e.g. XY [en:42]</t>
   </si>
   <si>
     <t>The type of tissue sampled for the study.</t>
@@ -397,6 +358,9 @@
     <t>Holdfast Fungi</t>
   </si>
   <si>
+    <t>Inflorescence</t>
+  </si>
+  <si>
     <t>Intestine</t>
   </si>
   <si>
@@ -553,21 +517,6 @@
     <t>target_probe_code</t>
   </si>
   <si>
-    <t>section_thickness_µm</t>
-  </si>
-  <si>
-    <t>section_thickness_method</t>
-  </si>
-  <si>
-    <t>section_thickness_temperature</t>
-  </si>
-  <si>
-    <t>is_pathological</t>
-  </si>
-  <si>
-    <t>photobleaching_duration_in_hours</t>
-  </si>
-  <si>
     <t>clearing_with_proteinasek</t>
   </si>
   <si>
@@ -722,13 +671,169 @@
   </si>
   <si>
     <t>e.g. fastq</t>
+  </si>
+  <si>
+    <t>Study123</t>
+  </si>
+  <si>
+    <t>Spatial Transcriptomics Reveals Expression Gradients in Developing Wheat Inflorescences at Celluar Resolution</t>
+  </si>
+  <si>
+    <t>Cristobal</t>
+  </si>
+  <si>
+    <t>Uauy</t>
+  </si>
+  <si>
+    <t>cristobal.uauy@jic.ac.uk</t>
+  </si>
+  <si>
+    <t>John Innes Centre</t>
+  </si>
+  <si>
+    <t>sample1</t>
+  </si>
+  <si>
+    <t>Triticum aestivum</t>
+  </si>
+  <si>
+    <t>sample2</t>
+  </si>
+  <si>
+    <t>sample3</t>
+  </si>
+  <si>
+    <t>sample4</t>
+  </si>
+  <si>
+    <t>sample5</t>
+  </si>
+  <si>
+    <t>sample6</t>
+  </si>
+  <si>
+    <t>sample7</t>
+  </si>
+  <si>
+    <t>sample8</t>
+  </si>
+  <si>
+    <t>Controlled environment room</t>
+  </si>
+  <si>
+    <t>Plants were grown under a 16/8 h light/dark cycle at 20/15 C, 65% relative humidity, and bottom-watering irrigation</t>
+  </si>
+  <si>
+    <t>John Innes F2 Starter + grit</t>
+  </si>
+  <si>
+    <t>Norfolk | United Kingdom</t>
+  </si>
+  <si>
+    <t>cv. Paragon</t>
+  </si>
+  <si>
+    <t>JIC GRU WM0013</t>
+  </si>
+  <si>
+    <t>ptcl1</t>
+  </si>
+  <si>
+    <t>ptcl2</t>
+  </si>
+  <si>
+    <t>vizgen</t>
+  </si>
+  <si>
+    <t>merscope</t>
+  </si>
+  <si>
+    <t>vizgen-bm1213</t>
+  </si>
+  <si>
+    <t>10um</t>
+  </si>
+  <si>
+    <t>vizgen-bm1214</t>
+  </si>
+  <si>
+    <t>cryostat</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>4 hrs</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>https://vizgen.com/91600001_merscope-instrument-user-guide_rev-h/</t>
+  </si>
+  <si>
+    <t>https://vizgen.com/wp-content/uploads/2024/04/91600002_MERSCOPE-Fresh-and-Fixed-Frozen-Tissue-Sample-Preparation-User-Guide_Rev-F.pdf</t>
+  </si>
+  <si>
+    <t>ptdl2</t>
+  </si>
+  <si>
+    <t>study1.zip</t>
+  </si>
+  <si>
+    <t>archive</t>
+  </si>
+  <si>
+    <t>study2.zip</t>
+  </si>
+  <si>
+    <t>fileID1</t>
+  </si>
+  <si>
+    <t>fileID2</t>
+  </si>
+  <si>
+    <t>fileID3</t>
+  </si>
+  <si>
+    <t>fileID4</t>
+  </si>
+  <si>
+    <t>fileID5</t>
+  </si>
+  <si>
+    <t>fileID6</t>
+  </si>
+  <si>
+    <t>fileID7</t>
+  </si>
+  <si>
+    <t>fileID8</t>
+  </si>
+  <si>
+    <t>study3.zip</t>
+  </si>
+  <si>
+    <t>study4.zip</t>
+  </si>
+  <si>
+    <t>study5.zip</t>
+  </si>
+  <si>
+    <t>study6.zip</t>
+  </si>
+  <si>
+    <t>study7.zip</t>
+  </si>
+  <si>
+    <t>study8.zip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,6 +853,19 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -796,7 +914,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -810,21 +927,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf/>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -862,7 +988,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -896,6 +1022,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -930,9 +1057,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1105,551 +1233,570 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="225" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="164.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="AB7F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F29A" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.1640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>216</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection password="AF21" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8348" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C4">
-    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+    <cfRule type="notContainsErrors" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Only alphanumeric characters are allowed." sqref="A5:A1005">
-      <formula1>AND(LEN(A5) &gt; 0, ISNUMBER(FIND(A5, TEXT(A5, "@"))))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="C5:C1005">
-      <formula1>HiddenDropdowns!$C$5:$C$12</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>HiddenDropdowns!$C$5:$C$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>C5:C1005</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C5:F79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="C5:F80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s">
+    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
-      <c r="F13" t="s">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
-      <c r="F14" t="s">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
-      <c r="F15" t="s">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
-      <c r="F16" t="s">
+    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="6:6">
-      <c r="F17" t="s">
+    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="6:6">
-      <c r="F18" t="s">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="6:6">
-      <c r="F19" t="s">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="6:6">
-      <c r="F20" t="s">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="6:6">
-      <c r="F21" t="s">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="6:6">
-      <c r="F22" t="s">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="6:6">
-      <c r="F23" t="s">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="6:6">
-      <c r="F24" t="s">
+    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="6:6">
-      <c r="F25" t="s">
+    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="6:6">
-      <c r="F26" t="s">
+    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="6:6">
-      <c r="F27" t="s">
+    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="6:6">
-      <c r="F28" t="s">
+    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="6:6">
-      <c r="F29" t="s">
+    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="6:6">
-      <c r="F30" t="s">
+    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="6:6">
-      <c r="F31" t="s">
+    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="6:6">
-      <c r="F32" t="s">
+    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="6:6">
-      <c r="F33" t="s">
+    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="6:6">
-      <c r="F34" t="s">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="35" spans="6:6">
-      <c r="F35" t="s">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="6:6">
-      <c r="F36" t="s">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="6:6">
-      <c r="F37" t="s">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="6:6">
-      <c r="F38" t="s">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="6:6">
-      <c r="F39" t="s">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="6:6">
-      <c r="F40" t="s">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="6:6">
-      <c r="F41" t="s">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="6:6">
-      <c r="F42" t="s">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="6:6">
-      <c r="F43" t="s">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="6:6">
-      <c r="F44" t="s">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="6:6">
-      <c r="F45" t="s">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="6:6">
-      <c r="F46" t="s">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="6:6">
-      <c r="F47" t="s">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="6:6">
-      <c r="F48" t="s">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="6:6">
-      <c r="F49" t="s">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="6:6">
-      <c r="F50" t="s">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="6:6">
-      <c r="F51" t="s">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="6:6">
-      <c r="F52" t="s">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="6:6">
-      <c r="F53" t="s">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="6:6">
-      <c r="F54" t="s">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="6:6">
-      <c r="F55" t="s">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="6:6">
-      <c r="F56" t="s">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="6:6">
-      <c r="F57" t="s">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="6:6">
-      <c r="F58" t="s">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="6:6">
-      <c r="F59" t="s">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="6:6">
-      <c r="F60" t="s">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="6:6">
-      <c r="F61" t="s">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="62" spans="6:6">
-      <c r="F62" t="s">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="6:6">
-      <c r="F63" t="s">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="6:6">
-      <c r="F64" t="s">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="6:6">
-      <c r="F65" t="s">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="66" spans="6:6">
-      <c r="F66" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="67" spans="6:6">
-      <c r="F67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="68" spans="6:6">
-      <c r="F68" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" spans="6:6">
-      <c r="F69" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="70" spans="6:6">
-      <c r="F70" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="71" spans="6:6">
-      <c r="F71" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72" spans="6:6">
-      <c r="F72" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="73" spans="6:6">
-      <c r="F73" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="74" spans="6:6">
-      <c r="F74" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="75" spans="6:6">
-      <c r="F75" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="76" spans="6:6">
-      <c r="F76" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="77" spans="6:6">
-      <c r="F77" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="78" spans="6:6">
-      <c r="F78" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="6:6">
-      <c r="F79" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1658,623 +1805,927 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="115.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="93.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="90.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="93.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="90.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>220</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection password="DE45" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FDBB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:H4">
-    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+    <cfRule type="notContainsErrors" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Only alphanumeric characters are allowed." sqref="A5:A1005">
-      <formula1>AND(LEN(A5) &gt; 0, ISNUMBER(FIND(A5, TEXT(A5, "@"))))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Value must follow the format XXXX-XXXX-XXXX-XXXX." sqref="B5:B1005">
-      <formula1>AND(LEN(B5)=19, MID(B5, 5, 1)="-", MID(B5, 10, 1)="-", MID(B5, 15, 1)="-", ISNUMBER(SUBSTITUTE(B5, "-", "")+0))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="C5:C1005">
-      <formula1>AND(LEN(C5) &gt; 0, LEN(C5) = LEN(SUBSTITUTE(C5, " ", "")), EXACT(C5, UPPER(C5)), ISNUMBER(FIND(LOWER(C5), C5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="D5:D1005">
-      <formula1>AND(LEN(D5) &gt; 0, LEN(D5) = LEN(SUBSTITUTE(D5, " ", "")), EXACT(D5, UPPER(D5)), ISNUMBER(FIND(LOWER(D5), D5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input must not contain consecutive dots (..) or hyphens (–) and include an @ symbol." sqref="E5:E1005">
-      <formula1>AND(ISNUMBER(FIND("@", E5)), ISNUMBER(FIND(".", E5, FIND("@", E5)+1)), NOT(ISNUMBER(FIND("..", E5))), NOT(ISNUMBER(FIND("--", E5))), LEN(E5) &gt; 3)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="F5:F1005">
-      <formula1>AND(LEN(F5) &gt; 0, LEN(F5) = LEN(SUBSTITUTE(F5, " ", "")), EXACT(F5, UPPER(F5)), ISNUMBER(FIND(LOWER(F5), F5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="G5:G1005">
-      <formula1>AND(LEN(G5) &gt; 0, LEN(G5) = LEN(SUBSTITUTE(G5, " ", "")), EXACT(G5, UPPER(G5)), ISNUMBER(FIND(LOWER(G5), G5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="H5:H1005">
-      <formula1>AND(LEN(H5) &gt; 0, LEN(H5) = LEN(SUBSTITUTE(H5, " ", "")), EXACT(H5, UPPER(H5)), ISNUMBER(FIND(LOWER(H5), H5)))</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="54.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="100" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="146" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="109.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="244" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="54.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="100" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="146" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="109.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="244" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="I3" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4565</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4565</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4565</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4565</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4565</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4565</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4565</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4565</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>233</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection password="CDC6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E689" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:L4">
-    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+    <cfRule type="notContainsErrors" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Only alphanumeric characters are allowed." sqref="A5:A1005">
-      <formula1>AND(LEN(A5) &gt; 0, ISNUMBER(FIND(A5, TEXT(A5, "@"))))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="B5:B1005">
-      <formula1>AND(LEN(B5) &gt; 0, LEN(B5) = LEN(SUBSTITUTE(B5, " ", "")), EXACT(B5, UPPER(B5)), ISNUMBER(FIND(LOWER(B5), B5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must start with uppercase and contain at least one lowercase letter." sqref="C5:C1005">
-      <formula1>AND(ISNUMBER(SEARCH("[A-Za-z]", C5)), EXACT(C5, LOWER(C5)), ISNUMBER(SEARCH("[a-z]", C5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must start with uppercase and contain at least one lowercase letter." sqref="D5:D1005">
-      <formula1>AND(ISNUMBER(SEARCH("[A-Za-z]", D5)), EXACT(D5, LOWER(D5)), ISNUMBER(SEARCH("[a-z]", D5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Value should match the format - either a two-part string with a language code and identifier in square brackets, or a positive integer." sqref="E5:E1005">
-      <formula1>AND(OR(AND(LEN(E5)&lt;=2, NOT(ISNUMBER(FIND(" ", E5))), NOT(ISNUMBER(FIND("-", E5)))), AND(LEN(E5)&gt;2, ISNUMBER(FIND(" ", E5)), ISNUMBER(FIND("[", E5)), ISNUMBER(FIND("]", E5)), ISNUMBER(FIND(":", E5)), ISNUMBER(VALUE(MID(E5, FIND(":", E5)+1, FIND("]", E5)-FIND(":", E5)-1))))), OR(ISNUMBER(E5+0), LEN(E5)&gt;0, MID(E5, 1, 1)&lt;&gt;"0"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
-      <formula1>HiddenDropdowns!$F$5:$F$79</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="G5:G1005">
-      <formula1>AND(LEN(G5) &gt; 0, LEN(G5) = LEN(SUBSTITUTE(G5, " ", "")), EXACT(G5, UPPER(G5)), ISNUMBER(FIND(LOWER(G5), G5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="H5:H1005">
-      <formula1>AND(LEN(H5) &gt; 0, LEN(H5) = LEN(SUBSTITUTE(H5, " ", "")), EXACT(H5, UPPER(H5)), ISNUMBER(FIND(LOWER(H5), H5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="I5:I1005">
-      <formula1>AND(LEN(I5) &gt; 0, LEN(I5) = LEN(SUBSTITUTE(I5, " ", "")), EXACT(I5, UPPER(I5)), ISNUMBER(FIND(LOWER(I5), I5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="J5:J1005">
-      <formula1>AND(LEN(J5) &gt; 0, LEN(J5) = LEN(SUBSTITUTE(J5, " ", "")), EXACT(J5, UPPER(J5)), ISNUMBER(FIND(LOWER(J5), J5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="K5:K1005">
-      <formula1>AND(LEN(K5) &gt; 0, LEN(K5) = LEN(SUBSTITUTE(K5, " ", "")), EXACT(K5, UPPER(K5)), ISNUMBER(FIND(LOWER(K5), K5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Expected format: label1: value1, label2: value2." sqref="L5:L1005">
-      <formula1>AND(LEN(L5)&gt;0, ISNUMBER(FIND(":", L5)), ISNUMBER(FIND(",", L5)), LEN(TRIM(LEFT(L5, FIND(":", L5)-1)))&gt;=1, LEN(TRIM(MID(L5, FIND(":", L5)+1, FIND(",", L5)-FIND(":", L5)-1)))&gt;=1, LEN(TRIM(RIGHT(L5, LEN(L5)-FIND(",", L5))))&gt;=1)</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" xr:uid="{00000000-0002-0000-0400-000000000000}">
+          <x14:formula1>
+            <xm:f>HiddenDropdowns!$F$5:$F$80</xm:f>
+          </x14:formula1>
+          <xm:sqref>F5:F1005</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="109.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="104.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="54.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="41.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="76.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="109.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="104.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="54.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="76.83203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J3" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="L3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H5" s="6">
+        <v>-20</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" s="6">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-20</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J6" s="6">
+        <v>8</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection password="B628" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A27B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:Q4">
-    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+    <cfRule type="notContainsErrors" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="17">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Only alphanumeric characters are allowed." sqref="A5:A1005">
-      <formula1>AND(LEN(A5) &gt; 0, ISNUMBER(FIND(A5, TEXT(A5, "@"))))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="B5:B1005">
-      <formula1>AND(LEN(B5) &gt; 0, LEN(B5) = LEN(SUBSTITUTE(B5, " ", "")), EXACT(B5, UPPER(B5)), ISNUMBER(FIND(LOWER(B5), B5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="C5:C1005">
-      <formula1>AND(LEN(C5) &gt; 0, LEN(C5) = LEN(SUBSTITUTE(C5, " ", "")), EXACT(C5, UPPER(C5)), ISNUMBER(FIND(LOWER(C5), C5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="D5:D1005">
-      <formula1>AND(LEN(D5) &gt; 0, LEN(D5) = LEN(SUBSTITUTE(D5, " ", "")), EXACT(D5, UPPER(D5)), ISNUMBER(FIND(LOWER(D5), D5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="E5:E1005">
-      <formula1>AND(LEN(E5) &gt; 0, LEN(E5) = LEN(SUBSTITUTE(E5, " ", "")), EXACT(E5, UPPER(E5)), ISNUMBER(FIND(LOWER(E5), E5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input must be a valid number." sqref="F5:F1005">
-      <formula1>AND(ISNUMBER(F5+0), LEN(F5)=LEN(SUBSTITUTE(F5, ".", "")) + IF(ISNUMBER(FIND(".", F5)), 1, 0))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="G5:G1005">
-      <formula1>AND(LEN(G5) &gt; 0, LEN(G5) = LEN(SUBSTITUTE(G5, " ", "")), EXACT(G5, UPPER(G5)), ISNUMBER(FIND(LOWER(G5), G5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input must be a valid positive or negative number." sqref="H5:H1005">
-      <formula1>ISNUMBER(VALUE(H5))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="I5:I1005">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="I7:I1005" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"No,Yes"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input must be a positive integer." sqref="J5:J1005">
-      <formula1>AND(ISNUMBER(J5+0), INT(J5+0)=J5+0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input must be a number followed by a time unit (such as “hrs”, “days”, “mins”, or “seconds”)" sqref="K5:K1005">
-      <formula1>AND(ISNUMBER(VALUE(LEFT(K5, IFERROR(FIND(" ", K5)-1, LEN(K5))))), OR(ISNUMBER(SEARCH("hr", K5)), ISNUMBER(SEARCH("day", K5)),  ISNUMBER(SEARCH("min", K5)), ISNUMBER(SEARCH("second", K5))))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input must be a number followed by a time unit (such as “hrs”, “days”, “mins”, or “seconds”)" sqref="L5:L1005">
-      <formula1>AND(ISNUMBER(VALUE(LEFT(L5, IFERROR(FIND(" ", L5)-1, LEN(L5))))), OR(ISNUMBER(SEARCH("hr", L5)), ISNUMBER(SEARCH("day", L5)),  ISNUMBER(SEARCH("min", L5)), ISNUMBER(SEARCH("second", L5))))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="M5:M1005">
-      <formula1>AND(LEN(M5) &gt; 0, LEN(M5) = LEN(SUBSTITUTE(M5, " ", "")), EXACT(M5, UPPER(M5)), ISNUMBER(FIND(LOWER(M5), M5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input must be a valid number." sqref="N5:N1005">
-      <formula1>AND(ISNUMBER(N5+0), LEN(N5)=LEN(SUBSTITUTE(N5, ".", "")) + IF(ISNUMBER(FIND(".", N5)), 1, 0))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="O5:O1005">
-      <formula1>AND(LEN(O5) &gt; 0, LEN(O5) = LEN(SUBSTITUTE(O5, " ", "")), EXACT(O5, UPPER(O5)), ISNUMBER(FIND(LOWER(O5), O5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Input must be a valid number." sqref="P5:P1005">
-      <formula1>AND(ISNUMBER(P5+0), LEN(P5)=LEN(SUBSTITUTE(P5, ".", "")) + IF(ISNUMBER(FIND(".", P5)), 1, 0))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="Q5:Q1005">
-      <formula1>AND(LEN(Q5) &gt; 0, LEN(Q5) = LEN(SUBSTITUTE(Q5, " ", "")), EXACT(Q5, UPPER(Q5)), ISNUMBER(FIND(LOWER(Q5), Q5)))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2282,107 +2733,229 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="B3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>251</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection password="FDD4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8F29" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1:E4">
-    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+    <cfRule type="notContainsErrors" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Only alphanumeric characters are allowed. No spaces or special characters." sqref="A5:A1005">
-      <formula1>AND(LEN(A5) &gt; 0, ISNUMBER(FIND(A5, TEXT(A5, "@"))))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="B5:B1005">
-      <formula1>AND(LEN(B5) &gt; 0, LEN(B5) = LEN(SUBSTITUTE(B5, " ", "")), EXACT(B5, UPPER(B5)), ISNUMBER(FIND(LOWER(B5), B5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="C5:C1005">
-      <formula1>AND(LEN(C5) &gt; 0, LEN(C5) = LEN(SUBSTITUTE(C5, " ", "")), EXACT(C5, UPPER(C5)), ISNUMBER(FIND(LOWER(C5), C5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="D5:D1005">
-      <formula1>AND(LEN(D5) &gt; 0, LEN(D5) = LEN(SUBSTITUTE(D5, " ", "")), EXACT(D5, UPPER(D5)), ISNUMBER(FIND(LOWER(D5), D5)))</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="String must contain at least one lowercase letter." sqref="E5:E1005">
-      <formula1>AND(LEN(E5) &gt; 0, LEN(E5) = LEN(SUBSTITUTE(E5, " ", "")), EXACT(E5, UPPER(E5)), ISNUMBER(FIND(LOWER(E5), E5)))</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>